--- a/List.xlsx
+++ b/List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\DeepDiveEmulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347B50EE-3C04-4362-9AFB-3F2A62C6D83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E96506-F23E-404F-B0E9-DDEB19A468C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="757" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="757" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="19" r:id="rId1"/>
@@ -1013,9 +1013,6 @@
     <t>2994209433</t>
   </si>
   <si>
-    <t>File</t>
-  </si>
-  <si>
     <t>Manifest
 Standard</t>
   </si>
@@ -1108,6 +1105,9 @@
   </si>
   <si>
     <t>Version 1.33.49857.0 (3433022044423385687) (2021-02-09) is the first version that has only 1 stop on Escort Duty missions in Deep Dives.</t>
+  </si>
+  <si>
+    <t>Command</t>
   </si>
 </sst>
 </file>
@@ -1426,6 +1426,9 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1459,14 +1462,20 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1477,200 +1486,11 @@
     <xf numFmtId="49" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="480">
-    <dxf>
-      <font>
-        <color rgb="FFDCD900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB8008C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00D6D9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9601"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00D6D9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01FFA3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFDCD900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB8008C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00D6D9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF026FFE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF68C900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9601"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFDCD900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB8008C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00D6D9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9601"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00D6D9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01FFA3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFDCD900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB8008C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00D6D9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF026FFE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF68C900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9601"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFDCD900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB8008C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00D6D9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9601"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00D6D9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01FFA3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFDCD900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB8008C"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00D6D9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF026FFE"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF68C900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9601"/>
-      </font>
-    </dxf>
+  <dxfs count="444">
     <dxf>
       <font>
         <color rgb="FFDCD900"/>
@@ -4279,14 +4099,14 @@
       <c r="C1" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>327</v>
+      <c r="D1" s="38" t="s">
+        <v>326</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>328</v>
+      <c r="F1" s="38" t="s">
+        <v>327</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>77</v>
@@ -4309,29 +4129,29 @@
         <v>80</v>
       </c>
       <c r="O1" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="P1" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="P1" s="37" t="s">
-        <v>330</v>
-      </c>
       <c r="Q1" s="37" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>226</v>
       </c>
       <c r="E2" s="50" t="s">
@@ -4340,10 +4160,10 @@
       <c r="F2" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="42" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -4362,26 +4182,26 @@
         <v>56</v>
       </c>
       <c r="N2" s="5"/>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="Q2" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="R2" s="41"/>
+      <c r="Q2" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="50"/>
-      <c r="D3" s="41"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="41"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="8" t="s">
         <v>67</v>
       </c>
@@ -4398,20 +4218,20 @@
         <v>71</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="41"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="50"/>
-      <c r="D4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="41"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="11" t="s">
         <v>70</v>
       </c>
@@ -4428,22 +4248,22 @@
       <c r="N4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="41"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="50"/>
-      <c r="D5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="42" t="s">
         <v>87</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -4462,20 +4282,20 @@
         <v>56</v>
       </c>
       <c r="N5" s="5"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="41"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="41"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="50"/>
       <c r="F6" s="50"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="41"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="8" t="s">
         <v>58</v>
       </c>
@@ -4494,20 +4314,20 @@
       <c r="N6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="41"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="50"/>
-      <c r="D7" s="41"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="41"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="11" t="s">
         <v>69</v>
       </c>
@@ -4522,22 +4342,22 @@
       </c>
       <c r="M7" s="17"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="42" t="s">
         <v>226</v>
       </c>
       <c r="E8" s="50" t="s">
@@ -4546,10 +4366,10 @@
       <c r="F8" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="42" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -4564,26 +4384,26 @@
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="R8" s="41"/>
+      <c r="Q8" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="50"/>
-      <c r="D9" s="41"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="41"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="8" t="s">
         <v>58</v>
       </c>
@@ -4602,20 +4422,20 @@
       <c r="N9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="41"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="50"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="41"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="11" t="s">
         <v>63</v>
       </c>
@@ -4632,22 +4452,22 @@
         <v>60</v>
       </c>
       <c r="N10" s="12"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="41"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="42" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -4664,20 +4484,20 @@
         <v>65</v>
       </c>
       <c r="N11" s="5"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="41"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="41"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="41"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="8" t="s">
         <v>58</v>
       </c>
@@ -4694,20 +4514,20 @@
         <v>66</v>
       </c>
       <c r="N12" s="9"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="41"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="41"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="41"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="11" t="s">
         <v>67</v>
       </c>
@@ -4722,20 +4542,20 @@
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="50"/>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="42" t="s">
         <v>303</v>
       </c>
       <c r="E14" s="50" t="s">
@@ -4744,10 +4564,10 @@
       <c r="F14" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="42" t="s">
         <v>87</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -4764,26 +4584,26 @@
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="P14" s="38" t="s">
+      <c r="P14" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="Q14" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="R14" s="41"/>
+      <c r="Q14" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="50"/>
-      <c r="D15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="41"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="8" t="s">
         <v>55</v>
       </c>
@@ -4802,20 +4622,20 @@
       <c r="N15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="41"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="41"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="41"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="11" t="s">
         <v>70</v>
       </c>
@@ -4832,22 +4652,22 @@
         <v>65</v>
       </c>
       <c r="N16" s="12"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="41"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="42"/>
     </row>
     <row r="17" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="50"/>
-      <c r="D17" s="41"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="42" t="s">
         <v>94</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -4866,20 +4686,20 @@
         <v>56</v>
       </c>
       <c r="N17" s="5"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="41"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="42"/>
     </row>
     <row r="18" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="50"/>
-      <c r="D18" s="41"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="41"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="42"/>
       <c r="I18" s="8" t="s">
         <v>63</v>
       </c>
@@ -4896,20 +4716,20 @@
         <v>139</v>
       </c>
       <c r="N18" s="9"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="41"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="50"/>
-      <c r="D19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="41"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="11" t="s">
         <v>69</v>
       </c>
@@ -4924,32 +4744,32 @@
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="41" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="42" t="s">
         <v>201</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -4968,26 +4788,26 @@
         <v>152</v>
       </c>
       <c r="N20" s="5"/>
-      <c r="O20" s="38" t="s">
+      <c r="O20" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="P20" s="38" t="s">
+      <c r="P20" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="Q20" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="R20" s="41"/>
+      <c r="Q20" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="R20" s="42"/>
     </row>
     <row r="21" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="41"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="8" t="s">
         <v>57</v>
       </c>
@@ -5000,20 +4820,20 @@
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="41"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="41"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="11" t="s">
         <v>55</v>
       </c>
@@ -5030,22 +4850,22 @@
         <v>138</v>
       </c>
       <c r="N22" s="14"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="41"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="46" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="42" t="s">
         <v>82</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -5064,20 +4884,20 @@
         <v>152</v>
       </c>
       <c r="N23" s="5"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="41"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="41"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="8" t="s">
         <v>69</v>
       </c>
@@ -5094,20 +4914,20 @@
         <v>71</v>
       </c>
       <c r="N24" s="9"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="41"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="41"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="11" t="s">
         <v>70</v>
       </c>
@@ -5124,32 +4944,32 @@
         <v>60</v>
       </c>
       <c r="N25" s="12"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="26" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="42" t="s">
         <v>94</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -5170,26 +4990,26 @@
       <c r="N26" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="Q26" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="R26" s="41"/>
+      <c r="Q26" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="R26" s="42"/>
     </row>
     <row r="27" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="41"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="8" t="s">
         <v>67</v>
       </c>
@@ -5204,20 +5024,20 @@
       </c>
       <c r="M27" s="16"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="41"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="11" t="s">
         <v>70</v>
       </c>
@@ -5234,22 +5054,22 @@
         <v>139</v>
       </c>
       <c r="N28" s="14"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="46" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="42" t="s">
         <v>201</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -5268,20 +5088,20 @@
         <v>66</v>
       </c>
       <c r="N29" s="5"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="41"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="42"/>
       <c r="I30" s="8" t="s">
         <v>70</v>
       </c>
@@ -5298,20 +5118,20 @@
         <v>139</v>
       </c>
       <c r="N30" s="9"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="41"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="11" t="s">
         <v>55</v>
       </c>
@@ -5328,32 +5148,32 @@
         <v>152</v>
       </c>
       <c r="N31" s="12"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41" t="s">
+      <c r="C32" s="43"/>
+      <c r="D32" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="42" t="s">
         <v>201</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -5372,26 +5192,26 @@
       <c r="N32" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O32" s="38" t="s">
+      <c r="O32" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="P32" s="38" t="s">
+      <c r="P32" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="Q32" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="R32" s="41"/>
+      <c r="Q32" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="41"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="42"/>
       <c r="I33" s="8" t="s">
         <v>57</v>
       </c>
@@ -5406,20 +5226,20 @@
         <v>73</v>
       </c>
       <c r="N33" s="9"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="41"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="42"/>
       <c r="I34" s="11" t="s">
         <v>58</v>
       </c>
@@ -5436,22 +5256,22 @@
         <v>137</v>
       </c>
       <c r="N34" s="14"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="46" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="42" t="s">
         <v>82</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -5472,20 +5292,20 @@
       <c r="N35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="41"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="42"/>
       <c r="I36" s="8" t="s">
         <v>70</v>
       </c>
@@ -5502,20 +5322,20 @@
         <v>66</v>
       </c>
       <c r="N36" s="9"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="41"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="11" t="s">
         <v>55</v>
       </c>
@@ -5530,32 +5350,32 @@
       </c>
       <c r="M37" s="17"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="41" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="42" t="s">
         <v>27</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -5572,26 +5392,26 @@
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="38" t="s">
+      <c r="O38" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="P38" s="38" t="s">
+      <c r="P38" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="Q38" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="R38" s="41"/>
+      <c r="Q38" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="41"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="8" t="s">
         <v>70</v>
       </c>
@@ -5608,20 +5428,20 @@
         <v>65</v>
       </c>
       <c r="N39" s="9"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="41"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="11" t="s">
         <v>69</v>
       </c>
@@ -5638,22 +5458,22 @@
         <v>152</v>
       </c>
       <c r="N40" s="14"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="46" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="42" t="s">
         <v>28</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -5672,20 +5492,20 @@
         <v>139</v>
       </c>
       <c r="N41" s="5"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="41"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="42"/>
       <c r="I42" s="8" t="s">
         <v>70</v>
       </c>
@@ -5704,20 +5524,20 @@
       <c r="N42" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="41"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="42"/>
       <c r="I43" s="11" t="s">
         <v>69</v>
       </c>
@@ -5734,32 +5554,32 @@
         <v>169</v>
       </c>
       <c r="N43" s="12"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="41" t="s">
+      <c r="C44" s="43"/>
+      <c r="D44" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G44" s="43" t="s">
+      <c r="G44" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="42" t="s">
         <v>82</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -5778,26 +5598,26 @@
       <c r="N44" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O44" s="38" t="s">
+      <c r="O44" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="P44" s="38" t="s">
+      <c r="P44" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="Q44" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="R44" s="41"/>
+      <c r="Q44" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="41"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="42"/>
       <c r="I45" s="8" t="s">
         <v>69</v>
       </c>
@@ -5814,20 +5634,20 @@
         <v>137</v>
       </c>
       <c r="N45" s="9"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="41"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="42"/>
     </row>
     <row r="46" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="41"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="42"/>
       <c r="I46" s="11" t="s">
         <v>67</v>
       </c>
@@ -5844,22 +5664,22 @@
         <v>169</v>
       </c>
       <c r="N46" s="14"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="41"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="42"/>
     </row>
     <row r="47" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="46" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="42" t="s">
         <v>29</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -5876,20 +5696,20 @@
         <v>65</v>
       </c>
       <c r="N47" s="5"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="41"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="42"/>
     </row>
     <row r="48" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="41"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="42"/>
       <c r="I48" s="8" t="s">
         <v>69</v>
       </c>
@@ -5906,20 +5726,20 @@
         <v>137</v>
       </c>
       <c r="N48" s="9"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="41"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="42"/>
     </row>
     <row r="49" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="41"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="42"/>
       <c r="I49" s="11" t="s">
         <v>57</v>
       </c>
@@ -5936,32 +5756,32 @@
       <c r="N49" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="42"/>
     </row>
     <row r="50" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="41" t="s">
+      <c r="C50" s="43"/>
+      <c r="D50" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="42" t="s">
         <v>87</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -5982,26 +5802,26 @@
       <c r="N50" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O50" s="38" t="s">
+      <c r="O50" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="P50" s="38" t="s">
+      <c r="P50" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="Q50" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="R50" s="41"/>
+      <c r="Q50" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="R50" s="42"/>
     </row>
     <row r="51" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="41"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="42"/>
       <c r="I51" s="8" t="s">
         <v>69</v>
       </c>
@@ -6018,20 +5838,20 @@
         <v>71</v>
       </c>
       <c r="N51" s="9"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="41"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="42"/>
     </row>
     <row r="52" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="41"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="42"/>
       <c r="I52" s="11" t="s">
         <v>55</v>
       </c>
@@ -6046,22 +5866,22 @@
       </c>
       <c r="M52" s="17"/>
       <c r="N52" s="14"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="41"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="42"/>
     </row>
     <row r="53" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="46" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="H53" s="41" t="s">
+      <c r="H53" s="42" t="s">
         <v>94</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -6080,20 +5900,20 @@
         <v>60</v>
       </c>
       <c r="N53" s="5"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="41"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="42"/>
     </row>
     <row r="54" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="41"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="42"/>
       <c r="I54" s="8" t="s">
         <v>67</v>
       </c>
@@ -6108,20 +5928,20 @@
       </c>
       <c r="M54" s="16"/>
       <c r="N54" s="9"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="41"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="42"/>
     </row>
     <row r="55" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="41"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="42"/>
       <c r="I55" s="11" t="s">
         <v>58</v>
       </c>
@@ -6138,32 +5958,32 @@
         <v>73</v>
       </c>
       <c r="N55" s="12"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="42"/>
     </row>
     <row r="56" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="41" t="s">
+      <c r="C56" s="43"/>
+      <c r="D56" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="41" t="s">
+      <c r="H56" s="42" t="s">
         <v>143</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -6182,26 +6002,26 @@
         <v>60</v>
       </c>
       <c r="N56" s="5"/>
-      <c r="O56" s="38" t="s">
+      <c r="O56" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="P56" s="38" t="s">
+      <c r="P56" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="Q56" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="R56" s="41"/>
+      <c r="Q56" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="R56" s="42"/>
     </row>
     <row r="57" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="41"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="42"/>
       <c r="I57" s="8" t="s">
         <v>63</v>
       </c>
@@ -6218,20 +6038,20 @@
         <v>138</v>
       </c>
       <c r="N57" s="9"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="41"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="42"/>
     </row>
     <row r="58" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="41"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="42"/>
       <c r="I58" s="11" t="s">
         <v>69</v>
       </c>
@@ -6246,22 +6066,22 @@
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="14"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="41"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="42"/>
     </row>
     <row r="59" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="46" t="s">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H59" s="41" t="s">
+      <c r="H59" s="42" t="s">
         <v>54</v>
       </c>
       <c r="I59" s="4" t="s">
@@ -6280,20 +6100,20 @@
         <v>139</v>
       </c>
       <c r="N59" s="5"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="41"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="42"/>
     </row>
     <row r="60" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="41"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="42"/>
       <c r="I60" s="8" t="s">
         <v>67</v>
       </c>
@@ -6312,20 +6132,20 @@
       <c r="N60" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="41"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="42"/>
     </row>
     <row r="61" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="41"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="42"/>
       <c r="I61" s="11" t="s">
         <v>69</v>
       </c>
@@ -6342,32 +6162,32 @@
         <v>89</v>
       </c>
       <c r="N61" s="12"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="42"/>
     </row>
     <row r="62" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="42"/>
-      <c r="D62" s="41" t="s">
+      <c r="C62" s="43"/>
+      <c r="D62" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F62" s="42" t="s">
+      <c r="F62" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G62" s="43" t="s">
+      <c r="G62" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="H62" s="41" t="s">
+      <c r="H62" s="42" t="s">
         <v>87</v>
       </c>
       <c r="I62" s="4" t="s">
@@ -6384,26 +6204,26 @@
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="5"/>
-      <c r="O62" s="38" t="s">
+      <c r="O62" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="P62" s="38" t="s">
+      <c r="P62" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="Q62" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="R62" s="41"/>
+      <c r="Q62" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="R62" s="42"/>
     </row>
     <row r="63" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="41"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="42"/>
       <c r="I63" s="8" t="s">
         <v>55</v>
       </c>
@@ -6420,20 +6240,20 @@
         <v>65</v>
       </c>
       <c r="N63" s="9"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="41"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="42"/>
     </row>
     <row r="64" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="41"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="42"/>
       <c r="I64" s="11" t="s">
         <v>57</v>
       </c>
@@ -6448,22 +6268,22 @@
         <v>71</v>
       </c>
       <c r="N64" s="14"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="41"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="42"/>
     </row>
     <row r="65" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="46" t="s">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H65" s="41" t="s">
+      <c r="H65" s="42" t="s">
         <v>146</v>
       </c>
       <c r="I65" s="4" t="s">
@@ -6482,20 +6302,20 @@
         <v>137</v>
       </c>
       <c r="N65" s="5"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="41"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="42"/>
     </row>
     <row r="66" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="41"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="42"/>
       <c r="I66" s="8" t="s">
         <v>55</v>
       </c>
@@ -6514,20 +6334,20 @@
       <c r="N66" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="41"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="42"/>
     </row>
     <row r="67" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="41"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="42"/>
       <c r="I67" s="11" t="s">
         <v>58</v>
       </c>
@@ -6544,32 +6364,32 @@
         <v>139</v>
       </c>
       <c r="N67" s="12"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="42"/>
     </row>
     <row r="68" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="42"/>
-      <c r="D68" s="41" t="s">
+      <c r="C68" s="43"/>
+      <c r="D68" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="E68" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F68" s="42" t="s">
+      <c r="F68" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G68" s="43" t="s">
+      <c r="G68" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="H68" s="41" t="s">
+      <c r="H68" s="42" t="s">
         <v>87</v>
       </c>
       <c r="I68" s="4" t="s">
@@ -6590,26 +6410,26 @@
       <c r="N68" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O68" s="38" t="s">
+      <c r="O68" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="P68" s="38" t="s">
+      <c r="P68" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="Q68" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="R68" s="41"/>
+      <c r="Q68" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="R68" s="42"/>
     </row>
     <row r="69" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="41"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="42"/>
       <c r="I69" s="8" t="s">
         <v>63</v>
       </c>
@@ -6626,20 +6446,20 @@
         <v>65</v>
       </c>
       <c r="N69" s="9"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="41"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="42"/>
     </row>
     <row r="70" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="41"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="42"/>
       <c r="I70" s="11" t="s">
         <v>70</v>
       </c>
@@ -6654,22 +6474,22 @@
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="14"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="41"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="42"/>
     </row>
     <row r="71" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="46" t="s">
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="H71" s="41" t="s">
+      <c r="H71" s="42" t="s">
         <v>94</v>
       </c>
       <c r="I71" s="4" t="s">
@@ -6686,20 +6506,20 @@
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="5"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="41"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="42"/>
     </row>
     <row r="72" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="41"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="42"/>
       <c r="I72" s="8" t="s">
         <v>70</v>
       </c>
@@ -6716,20 +6536,20 @@
         <v>169</v>
       </c>
       <c r="N72" s="9"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="41"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="42"/>
     </row>
     <row r="73" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="41"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="42"/>
       <c r="I73" s="11" t="s">
         <v>67</v>
       </c>
@@ -6748,32 +6568,32 @@
       <c r="N73" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="41"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="42"/>
     </row>
     <row r="74" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="41" t="s">
+      <c r="C74" s="43"/>
+      <c r="D74" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="E74" s="42" t="s">
+      <c r="E74" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F74" s="42" t="s">
+      <c r="F74" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G74" s="43" t="s">
+      <c r="G74" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="H74" s="41" t="s">
+      <c r="H74" s="42" t="s">
         <v>28</v>
       </c>
       <c r="I74" s="4" t="s">
@@ -6794,26 +6614,26 @@
       <c r="N74" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O74" s="38" t="s">
+      <c r="O74" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="P74" s="38" t="s">
+      <c r="P74" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="Q74" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="R74" s="41"/>
+      <c r="Q74" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="R74" s="42"/>
     </row>
     <row r="75" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="41"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="42"/>
       <c r="I75" s="8" t="s">
         <v>57</v>
       </c>
@@ -6828,20 +6648,20 @@
         <v>73</v>
       </c>
       <c r="N75" s="9"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="41"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="42"/>
     </row>
     <row r="76" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="41"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="42"/>
       <c r="I76" s="11" t="s">
         <v>70</v>
       </c>
@@ -6856,22 +6676,22 @@
       </c>
       <c r="M76" s="17"/>
       <c r="N76" s="14"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="41"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="42"/>
     </row>
     <row r="77" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="46" t="s">
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="H77" s="41" t="s">
+      <c r="H77" s="42" t="s">
         <v>146</v>
       </c>
       <c r="I77" s="4" t="s">
@@ -6892,20 +6712,20 @@
       <c r="N77" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="41"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="42"/>
     </row>
     <row r="78" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="41"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="42"/>
       <c r="I78" s="8" t="s">
         <v>69</v>
       </c>
@@ -6922,20 +6742,20 @@
         <v>71</v>
       </c>
       <c r="N78" s="9"/>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="41"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="42"/>
     </row>
     <row r="79" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="41"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="42"/>
       <c r="I79" s="11" t="s">
         <v>70</v>
       </c>
@@ -6952,32 +6772,32 @@
         <v>152</v>
       </c>
       <c r="N79" s="12"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="41"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="42"/>
     </row>
     <row r="80" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="41" t="s">
+      <c r="C80" s="43"/>
+      <c r="D80" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="E80" s="42" t="s">
+      <c r="E80" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F80" s="42" t="s">
+      <c r="F80" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G80" s="43" t="s">
+      <c r="G80" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="H80" s="41" t="s">
+      <c r="H80" s="42" t="s">
         <v>143</v>
       </c>
       <c r="I80" s="4" t="s">
@@ -6996,26 +6816,26 @@
         <v>71</v>
       </c>
       <c r="N80" s="5"/>
-      <c r="O80" s="38" t="s">
+      <c r="O80" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="P80" s="38" t="s">
+      <c r="P80" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="Q80" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="R80" s="41"/>
+      <c r="Q80" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="R80" s="42"/>
     </row>
     <row r="81" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="41"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="42"/>
       <c r="I81" s="8" t="s">
         <v>63</v>
       </c>
@@ -7030,20 +6850,20 @@
       </c>
       <c r="M81" s="16"/>
       <c r="N81" s="9"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="41"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="42"/>
     </row>
     <row r="82" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="41"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="41"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="42"/>
       <c r="I82" s="11" t="s">
         <v>58</v>
       </c>
@@ -7062,22 +6882,22 @@
       <c r="N82" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="O82" s="39"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="41"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="42"/>
     </row>
     <row r="83" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="46" t="s">
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="H83" s="41" t="s">
+      <c r="H83" s="42" t="s">
         <v>27</v>
       </c>
       <c r="I83" s="4" t="s">
@@ -7094,20 +6914,20 @@
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="5"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="41"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="42"/>
     </row>
     <row r="84" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="41"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="42"/>
       <c r="I84" s="8" t="s">
         <v>67</v>
       </c>
@@ -7124,20 +6944,20 @@
         <v>60</v>
       </c>
       <c r="N84" s="9"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="41"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="42"/>
     </row>
     <row r="85" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="41"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="42"/>
       <c r="I85" s="11" t="s">
         <v>57</v>
       </c>
@@ -7152,32 +6972,32 @@
         <v>71</v>
       </c>
       <c r="N85" s="12"/>
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
-      <c r="Q85" s="40"/>
-      <c r="R85" s="41"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="42"/>
     </row>
     <row r="86" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="42"/>
-      <c r="D86" s="41" t="s">
+      <c r="C86" s="43"/>
+      <c r="D86" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="E86" s="42" t="s">
+      <c r="E86" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F86" s="42" t="s">
+      <c r="F86" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G86" s="43" t="s">
+      <c r="G86" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="H86" s="41" t="s">
+      <c r="H86" s="42" t="s">
         <v>143</v>
       </c>
       <c r="I86" s="4" t="s">
@@ -7196,26 +7016,26 @@
         <v>169</v>
       </c>
       <c r="N86" s="5"/>
-      <c r="O86" s="38" t="s">
+      <c r="O86" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="P86" s="38" t="s">
+      <c r="P86" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="Q86" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="R86" s="41"/>
+      <c r="Q86" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="R86" s="42"/>
     </row>
     <row r="87" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="41"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="42"/>
       <c r="I87" s="8" t="s">
         <v>57</v>
       </c>
@@ -7232,20 +7052,20 @@
       <c r="N87" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="O87" s="39"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="41"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="42"/>
     </row>
     <row r="88" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="41"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="41"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="42"/>
       <c r="I88" s="11" t="s">
         <v>58</v>
       </c>
@@ -7260,22 +7080,22 @@
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="14"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="41"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="42"/>
     </row>
     <row r="89" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="46" t="s">
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="H89" s="41" t="s">
+      <c r="H89" s="42" t="s">
         <v>82</v>
       </c>
       <c r="I89" s="4" t="s">
@@ -7292,20 +7112,20 @@
         <v>137</v>
       </c>
       <c r="N89" s="5"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="41"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="42"/>
     </row>
     <row r="90" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="41"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="42"/>
       <c r="I90" s="10" t="s">
         <v>55</v>
       </c>
@@ -7322,20 +7142,20 @@
         <v>66</v>
       </c>
       <c r="N90" s="9"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="41"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="42"/>
     </row>
     <row r="91" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="41"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="42"/>
       <c r="I91" s="11" t="s">
         <v>69</v>
       </c>
@@ -7352,10 +7172,10 @@
         <v>169</v>
       </c>
       <c r="N91" s="12"/>
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
-      <c r="Q91" s="40"/>
-      <c r="R91" s="41"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="42"/>
     </row>
     <row r="92" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
@@ -7406,26 +7226,26 @@
       <c r="R93" s="19"/>
     </row>
     <row r="94" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="42"/>
-      <c r="D94" s="41" t="s">
+      <c r="C94" s="43"/>
+      <c r="D94" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="E94" s="42" t="s">
+      <c r="E94" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F94" s="42" t="s">
+      <c r="F94" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="G94" s="43" t="s">
+      <c r="G94" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="H94" s="41" t="s">
+      <c r="H94" s="42" t="s">
         <v>28</v>
       </c>
       <c r="I94" s="4" t="s">
@@ -7440,26 +7260,26 @@
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="5"/>
-      <c r="O94" s="38" t="s">
+      <c r="O94" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="P94" s="38" t="s">
+      <c r="P94" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="Q94" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="R94" s="41"/>
+      <c r="Q94" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="R94" s="42"/>
     </row>
     <row r="95" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="41"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="42"/>
       <c r="I95" s="8" t="s">
         <v>70</v>
       </c>
@@ -7476,20 +7296,20 @@
         <v>65</v>
       </c>
       <c r="N95" s="9"/>
-      <c r="O95" s="39"/>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="41"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="42"/>
     </row>
     <row r="96" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="41"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="41"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="42"/>
       <c r="I96" s="11" t="s">
         <v>69</v>
       </c>
@@ -7506,22 +7326,22 @@
         <v>60</v>
       </c>
       <c r="N96" s="14"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="41"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
+      <c r="R96" s="42"/>
     </row>
     <row r="97" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="46" t="s">
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="H97" s="41" t="s">
+      <c r="H97" s="42" t="s">
         <v>146</v>
       </c>
       <c r="I97" s="4" t="s">
@@ -7538,20 +7358,20 @@
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="5"/>
-      <c r="O97" s="39"/>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="41"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="40"/>
+      <c r="R97" s="42"/>
     </row>
     <row r="98" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="41"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="42"/>
       <c r="I98" s="8" t="s">
         <v>57</v>
       </c>
@@ -7566,20 +7386,20 @@
         <v>71</v>
       </c>
       <c r="N98" s="9"/>
-      <c r="O98" s="39"/>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="41"/>
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
+      <c r="R98" s="42"/>
     </row>
     <row r="99" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="41"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="41"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="42"/>
       <c r="I99" s="11" t="s">
         <v>69</v>
       </c>
@@ -7596,32 +7416,32 @@
         <v>60</v>
       </c>
       <c r="N99" s="12"/>
-      <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="41"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="42"/>
     </row>
     <row r="100" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="41" t="s">
+      <c r="A100" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="42"/>
-      <c r="D100" s="41" t="s">
+      <c r="C100" s="43"/>
+      <c r="D100" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F100" s="41" t="s">
+      <c r="F100" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="G100" s="43" t="s">
+      <c r="G100" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="H100" s="41" t="s">
+      <c r="H100" s="42" t="s">
         <v>54</v>
       </c>
       <c r="I100" s="4" t="s">
@@ -7638,26 +7458,26 @@
         <v>137</v>
       </c>
       <c r="N100" s="5"/>
-      <c r="O100" s="38" t="s">
+      <c r="O100" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="P100" s="38" t="s">
+      <c r="P100" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="Q100" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="R100" s="41"/>
+      <c r="Q100" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="R100" s="42"/>
     </row>
     <row r="101" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="41"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="42"/>
       <c r="I101" s="8" t="s">
         <v>69</v>
       </c>
@@ -7674,20 +7494,20 @@
         <v>138</v>
       </c>
       <c r="N101" s="9"/>
-      <c r="O101" s="39"/>
-      <c r="P101" s="39"/>
-      <c r="Q101" s="39"/>
-      <c r="R101" s="41"/>
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
+      <c r="Q101" s="40"/>
+      <c r="R101" s="42"/>
     </row>
     <row r="102" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="41"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="41"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="42"/>
       <c r="I102" s="11" t="s">
         <v>55</v>
       </c>
@@ -7702,22 +7522,22 @@
       </c>
       <c r="M102" s="17"/>
       <c r="N102" s="14"/>
-      <c r="O102" s="39"/>
-      <c r="P102" s="39"/>
-      <c r="Q102" s="39"/>
-      <c r="R102" s="41"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="40"/>
+      <c r="R102" s="42"/>
     </row>
     <row r="103" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="46" t="s">
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="H103" s="41" t="s">
+      <c r="H103" s="42" t="s">
         <v>82</v>
       </c>
       <c r="I103" s="4" t="s">
@@ -7734,20 +7554,20 @@
       </c>
       <c r="M103" s="15"/>
       <c r="N103" s="5"/>
-      <c r="O103" s="39"/>
-      <c r="P103" s="39"/>
-      <c r="Q103" s="39"/>
-      <c r="R103" s="41"/>
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
+      <c r="Q103" s="40"/>
+      <c r="R103" s="42"/>
     </row>
     <row r="104" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="41"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="41"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="42"/>
       <c r="I104" s="8" t="s">
         <v>55</v>
       </c>
@@ -7764,20 +7584,20 @@
         <v>137</v>
       </c>
       <c r="N104" s="9"/>
-      <c r="O104" s="39"/>
-      <c r="P104" s="39"/>
-      <c r="Q104" s="39"/>
-      <c r="R104" s="41"/>
+      <c r="O104" s="40"/>
+      <c r="P104" s="40"/>
+      <c r="Q104" s="40"/>
+      <c r="R104" s="42"/>
     </row>
     <row r="105" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="41"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="41"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="42"/>
       <c r="I105" s="11" t="s">
         <v>70</v>
       </c>
@@ -7796,10 +7616,10 @@
       <c r="N105" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="O105" s="40"/>
-      <c r="P105" s="40"/>
-      <c r="Q105" s="40"/>
-      <c r="R105" s="41"/>
+      <c r="O105" s="41"/>
+      <c r="P105" s="41"/>
+      <c r="Q105" s="41"/>
+      <c r="R105" s="42"/>
     </row>
     <row r="106" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
@@ -7826,26 +7646,26 @@
       <c r="R106" s="19"/>
     </row>
     <row r="107" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="42"/>
-      <c r="D107" s="41" t="s">
+      <c r="C107" s="43"/>
+      <c r="D107" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="E107" s="42" t="s">
+      <c r="E107" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F107" s="41" t="s">
+      <c r="F107" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="G107" s="43" t="s">
+      <c r="G107" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="H107" s="41" t="s">
+      <c r="H107" s="42" t="s">
         <v>27</v>
       </c>
       <c r="I107" s="4" t="s">
@@ -7864,26 +7684,26 @@
         <v>73</v>
       </c>
       <c r="N107" s="5"/>
-      <c r="O107" s="38" t="s">
+      <c r="O107" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="P107" s="38" t="s">
+      <c r="P107" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q107" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="R107" s="41"/>
+      <c r="Q107" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="R107" s="42"/>
     </row>
     <row r="108" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="41"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="42"/>
       <c r="I108" s="8" t="s">
         <v>67</v>
       </c>
@@ -7898,20 +7718,20 @@
       </c>
       <c r="M108" s="16"/>
       <c r="N108" s="9"/>
-      <c r="O108" s="39"/>
-      <c r="P108" s="39"/>
-      <c r="Q108" s="39"/>
-      <c r="R108" s="41"/>
+      <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
+      <c r="Q108" s="40"/>
+      <c r="R108" s="42"/>
     </row>
     <row r="109" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="41"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="41"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="42"/>
       <c r="I109" s="11" t="s">
         <v>69</v>
       </c>
@@ -7930,22 +7750,22 @@
       <c r="N109" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="O109" s="39"/>
-      <c r="P109" s="39"/>
-      <c r="Q109" s="39"/>
-      <c r="R109" s="41"/>
+      <c r="O109" s="40"/>
+      <c r="P109" s="40"/>
+      <c r="Q109" s="40"/>
+      <c r="R109" s="42"/>
     </row>
     <row r="110" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="41"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="46" t="s">
+      <c r="A110" s="42"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="H110" s="41" t="s">
+      <c r="H110" s="42" t="s">
         <v>28</v>
       </c>
       <c r="I110" s="4" t="s">
@@ -7964,22 +7784,22 @@
         <v>65</v>
       </c>
       <c r="N110" s="5"/>
-      <c r="O110" s="39"/>
-      <c r="P110" s="39"/>
-      <c r="Q110" s="39"/>
-      <c r="R110" s="41" t="s">
+      <c r="O110" s="40"/>
+      <c r="P110" s="40"/>
+      <c r="Q110" s="40"/>
+      <c r="R110" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="41"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="41"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="42"/>
       <c r="I111" s="8" t="s">
         <v>63</v>
       </c>
@@ -7996,20 +7816,20 @@
       <c r="N111" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O111" s="39"/>
-      <c r="P111" s="39"/>
-      <c r="Q111" s="39"/>
-      <c r="R111" s="41"/>
+      <c r="O111" s="40"/>
+      <c r="P111" s="40"/>
+      <c r="Q111" s="40"/>
+      <c r="R111" s="42"/>
     </row>
     <row r="112" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
-      <c r="B112" s="41"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="41"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="42"/>
       <c r="I112" s="11" t="s">
         <v>70</v>
       </c>
@@ -8026,10 +7846,10 @@
         <v>71</v>
       </c>
       <c r="N112" s="12"/>
-      <c r="O112" s="40"/>
-      <c r="P112" s="40"/>
-      <c r="Q112" s="40"/>
-      <c r="R112" s="41"/>
+      <c r="O112" s="41"/>
+      <c r="P112" s="41"/>
+      <c r="Q112" s="41"/>
+      <c r="R112" s="42"/>
     </row>
     <row r="113" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
@@ -8056,26 +7876,26 @@
       <c r="R113" s="19"/>
     </row>
     <row r="114" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="41" t="s">
+      <c r="A114" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="42"/>
-      <c r="D114" s="41" t="s">
+      <c r="C114" s="43"/>
+      <c r="D114" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="E114" s="42" t="s">
+      <c r="E114" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F114" s="41" t="s">
+      <c r="F114" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="G114" s="43" t="s">
+      <c r="G114" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="H114" s="41" t="s">
+      <c r="H114" s="42" t="s">
         <v>29</v>
       </c>
       <c r="I114" s="4" t="s">
@@ -8094,26 +7914,26 @@
         <v>71</v>
       </c>
       <c r="N114" s="5"/>
-      <c r="O114" s="38" t="s">
+      <c r="O114" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="P114" s="38" t="s">
+      <c r="P114" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="Q114" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="R114" s="41"/>
+      <c r="Q114" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="R114" s="42"/>
     </row>
     <row r="115" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
-      <c r="B115" s="41"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="42"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="41"/>
+      <c r="A115" s="42"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="42"/>
       <c r="I115" s="8" t="s">
         <v>63</v>
       </c>
@@ -8128,20 +7948,20 @@
       </c>
       <c r="M115" s="16"/>
       <c r="N115" s="9"/>
-      <c r="O115" s="39"/>
-      <c r="P115" s="39"/>
-      <c r="Q115" s="39"/>
-      <c r="R115" s="41"/>
+      <c r="O115" s="40"/>
+      <c r="P115" s="40"/>
+      <c r="Q115" s="40"/>
+      <c r="R115" s="42"/>
     </row>
     <row r="116" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="41"/>
-      <c r="B116" s="41"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="41"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="42"/>
       <c r="I116" s="11" t="s">
         <v>55</v>
       </c>
@@ -8158,22 +7978,22 @@
         <v>152</v>
       </c>
       <c r="N116" s="14"/>
-      <c r="O116" s="39"/>
-      <c r="P116" s="39"/>
-      <c r="Q116" s="39"/>
-      <c r="R116" s="41"/>
+      <c r="O116" s="40"/>
+      <c r="P116" s="40"/>
+      <c r="Q116" s="40"/>
+      <c r="R116" s="42"/>
     </row>
     <row r="117" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
-      <c r="B117" s="41"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="42"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="46" t="s">
+      <c r="A117" s="42"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="H117" s="41" t="s">
+      <c r="H117" s="42" t="s">
         <v>82</v>
       </c>
       <c r="I117" s="4" t="s">
@@ -8192,20 +8012,20 @@
       <c r="N117" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O117" s="39"/>
-      <c r="P117" s="39"/>
-      <c r="Q117" s="39"/>
-      <c r="R117" s="41"/>
+      <c r="O117" s="40"/>
+      <c r="P117" s="40"/>
+      <c r="Q117" s="40"/>
+      <c r="R117" s="42"/>
     </row>
     <row r="118" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="41"/>
-      <c r="B118" s="41"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="42"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="41"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="42"/>
       <c r="I118" s="8" t="s">
         <v>63</v>
       </c>
@@ -8222,20 +8042,20 @@
         <v>71</v>
       </c>
       <c r="N118" s="9"/>
-      <c r="O118" s="39"/>
-      <c r="P118" s="39"/>
-      <c r="Q118" s="39"/>
-      <c r="R118" s="41"/>
+      <c r="O118" s="40"/>
+      <c r="P118" s="40"/>
+      <c r="Q118" s="40"/>
+      <c r="R118" s="42"/>
     </row>
     <row r="119" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="41"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="42"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="48"/>
-      <c r="H119" s="41"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="42"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="42"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="42"/>
       <c r="I119" s="11" t="s">
         <v>55</v>
       </c>
@@ -8250,32 +8070,32 @@
       </c>
       <c r="M119" s="17"/>
       <c r="N119" s="12"/>
-      <c r="O119" s="40"/>
-      <c r="P119" s="40"/>
-      <c r="Q119" s="40"/>
-      <c r="R119" s="41"/>
+      <c r="O119" s="41"/>
+      <c r="P119" s="41"/>
+      <c r="Q119" s="41"/>
+      <c r="R119" s="42"/>
     </row>
     <row r="120" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="55" t="s">
-        <v>355</v>
-      </c>
-      <c r="B120" s="56"/>
-      <c r="C120" s="56"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="56"/>
-      <c r="J120" s="56"/>
-      <c r="K120" s="56"/>
-      <c r="L120" s="56"/>
-      <c r="M120" s="56"/>
-      <c r="N120" s="56"/>
-      <c r="O120" s="56"/>
-      <c r="P120" s="56"/>
-      <c r="Q120" s="56"/>
-      <c r="R120" s="57"/>
+      <c r="A120" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="B120" s="53"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="53"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="53"/>
+      <c r="K120" s="53"/>
+      <c r="L120" s="53"/>
+      <c r="M120" s="53"/>
+      <c r="N120" s="53"/>
+      <c r="O120" s="53"/>
+      <c r="P120" s="53"/>
+      <c r="Q120" s="53"/>
+      <c r="R120" s="54"/>
     </row>
     <row r="121" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
@@ -8302,24 +8122,24 @@
       <c r="R121" s="19"/>
     </row>
     <row r="122" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="41" t="s">
+      <c r="A122" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B122" s="41" t="s">
+      <c r="B122" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C122" s="42"/>
-      <c r="D122" s="41" t="s">
+      <c r="C122" s="43"/>
+      <c r="D122" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="E122" s="42" t="s">
+      <c r="E122" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F122" s="41"/>
-      <c r="G122" s="43" t="s">
+      <c r="F122" s="42"/>
+      <c r="G122" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="H122" s="41" t="s">
+      <c r="H122" s="42" t="s">
         <v>87</v>
       </c>
       <c r="I122" s="4" t="s">
@@ -8336,26 +8156,26 @@
       </c>
       <c r="M122" s="15"/>
       <c r="N122" s="5"/>
-      <c r="O122" s="38" t="s">
+      <c r="O122" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="P122" s="38" t="s">
+      <c r="P122" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="Q122" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="R122" s="41"/>
+      <c r="Q122" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="R122" s="42"/>
     </row>
     <row r="123" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
-      <c r="B123" s="41"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="42"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="41"/>
+      <c r="A123" s="42"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="42"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="42"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="42"/>
       <c r="I123" s="8" t="s">
         <v>70</v>
       </c>
@@ -8372,20 +8192,20 @@
         <v>152</v>
       </c>
       <c r="N123" s="9"/>
-      <c r="O123" s="39"/>
-      <c r="P123" s="39"/>
-      <c r="Q123" s="39"/>
-      <c r="R123" s="41"/>
+      <c r="O123" s="40"/>
+      <c r="P123" s="40"/>
+      <c r="Q123" s="40"/>
+      <c r="R123" s="42"/>
     </row>
     <row r="124" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="41"/>
-      <c r="B124" s="41"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="41"/>
+      <c r="A124" s="42"/>
+      <c r="B124" s="42"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="42"/>
       <c r="I124" s="11" t="s">
         <v>67</v>
       </c>
@@ -8402,22 +8222,22 @@
         <v>71</v>
       </c>
       <c r="N124" s="14"/>
-      <c r="O124" s="39"/>
-      <c r="P124" s="39"/>
-      <c r="Q124" s="39"/>
-      <c r="R124" s="41"/>
+      <c r="O124" s="40"/>
+      <c r="P124" s="40"/>
+      <c r="Q124" s="40"/>
+      <c r="R124" s="42"/>
     </row>
     <row r="125" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
-      <c r="B125" s="41"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="42"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="46" t="s">
+      <c r="A125" s="42"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="42"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="42"/>
+      <c r="G125" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="H125" s="41" t="s">
+      <c r="H125" s="42" t="s">
         <v>82</v>
       </c>
       <c r="I125" s="4" t="s">
@@ -8436,22 +8256,22 @@
         <v>138</v>
       </c>
       <c r="N125" s="5"/>
-      <c r="O125" s="39"/>
-      <c r="P125" s="39"/>
-      <c r="Q125" s="39"/>
-      <c r="R125" s="41" t="s">
+      <c r="O125" s="40"/>
+      <c r="P125" s="40"/>
+      <c r="Q125" s="40"/>
+      <c r="R125" s="42" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
-      <c r="B126" s="41"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="42"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="41"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="42"/>
       <c r="I126" s="8" t="s">
         <v>69</v>
       </c>
@@ -8468,20 +8288,20 @@
         <v>65</v>
       </c>
       <c r="N126" s="9"/>
-      <c r="O126" s="39"/>
-      <c r="P126" s="39"/>
-      <c r="Q126" s="39"/>
-      <c r="R126" s="41"/>
+      <c r="O126" s="40"/>
+      <c r="P126" s="40"/>
+      <c r="Q126" s="40"/>
+      <c r="R126" s="42"/>
     </row>
     <row r="127" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="41"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="48"/>
-      <c r="H127" s="41"/>
+      <c r="A127" s="42"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="49"/>
+      <c r="H127" s="42"/>
       <c r="I127" s="11" t="s">
         <v>70</v>
       </c>
@@ -8500,10 +8320,10 @@
       <c r="N127" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="O127" s="40"/>
-      <c r="P127" s="40"/>
-      <c r="Q127" s="40"/>
-      <c r="R127" s="41"/>
+      <c r="O127" s="41"/>
+      <c r="P127" s="41"/>
+      <c r="Q127" s="41"/>
+      <c r="R127" s="42"/>
     </row>
     <row r="128" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
@@ -8530,24 +8350,24 @@
       <c r="R128" s="19"/>
     </row>
     <row r="129" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="41" t="s">
+      <c r="A129" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B129" s="41" t="s">
+      <c r="B129" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C129" s="42"/>
-      <c r="D129" s="41" t="s">
+      <c r="C129" s="43"/>
+      <c r="D129" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="E129" s="42" t="s">
+      <c r="E129" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="F129" s="41"/>
-      <c r="G129" s="43" t="s">
+      <c r="F129" s="42"/>
+      <c r="G129" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="H129" s="41" t="s">
+      <c r="H129" s="42" t="s">
         <v>87</v>
       </c>
       <c r="I129" s="4" t="s">
@@ -8566,26 +8386,26 @@
         <v>71</v>
       </c>
       <c r="N129" s="5"/>
-      <c r="O129" s="38" t="s">
+      <c r="O129" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="P129" s="38" t="s">
+      <c r="P129" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="Q129" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="R129" s="41"/>
+      <c r="Q129" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="R129" s="42"/>
     </row>
     <row r="130" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="41"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="42"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="41"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="42"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="42"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="42"/>
       <c r="I130" s="8" t="s">
         <v>55</v>
       </c>
@@ -8602,20 +8422,20 @@
         <v>66</v>
       </c>
       <c r="N130" s="9"/>
-      <c r="O130" s="39"/>
-      <c r="P130" s="39"/>
-      <c r="Q130" s="39"/>
-      <c r="R130" s="41"/>
+      <c r="O130" s="40"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="40"/>
+      <c r="R130" s="42"/>
     </row>
     <row r="131" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="41"/>
-      <c r="B131" s="41"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="41"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="41"/>
-      <c r="G131" s="45"/>
-      <c r="H131" s="41"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="42"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="42"/>
       <c r="I131" s="11" t="s">
         <v>70</v>
       </c>
@@ -8630,22 +8450,22 @@
       </c>
       <c r="M131" s="17"/>
       <c r="N131" s="14"/>
-      <c r="O131" s="39"/>
-      <c r="P131" s="39"/>
-      <c r="Q131" s="39"/>
-      <c r="R131" s="41"/>
+      <c r="O131" s="40"/>
+      <c r="P131" s="40"/>
+      <c r="Q131" s="40"/>
+      <c r="R131" s="42"/>
     </row>
     <row r="132" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="41"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="41"/>
-      <c r="G132" s="46" t="s">
+      <c r="A132" s="42"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="42"/>
+      <c r="G132" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="H132" s="41" t="s">
+      <c r="H132" s="42" t="s">
         <v>54</v>
       </c>
       <c r="I132" s="4" t="s">
@@ -8664,22 +8484,22 @@
         <v>137</v>
       </c>
       <c r="N132" s="5"/>
-      <c r="O132" s="39"/>
-      <c r="P132" s="39"/>
-      <c r="Q132" s="39"/>
-      <c r="R132" s="41" t="s">
+      <c r="O132" s="40"/>
+      <c r="P132" s="40"/>
+      <c r="Q132" s="40"/>
+      <c r="R132" s="42" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="41"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="47"/>
-      <c r="H133" s="41"/>
+      <c r="A133" s="42"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="42"/>
       <c r="I133" s="8" t="s">
         <v>55</v>
       </c>
@@ -8698,20 +8518,20 @@
       <c r="N133" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O133" s="39"/>
-      <c r="P133" s="39"/>
-      <c r="Q133" s="39"/>
-      <c r="R133" s="41"/>
+      <c r="O133" s="40"/>
+      <c r="P133" s="40"/>
+      <c r="Q133" s="40"/>
+      <c r="R133" s="42"/>
     </row>
     <row r="134" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="41"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="41"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="48"/>
-      <c r="H134" s="41"/>
+      <c r="A134" s="42"/>
+      <c r="B134" s="42"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="42"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="42"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="42"/>
       <c r="I134" s="11" t="s">
         <v>69</v>
       </c>
@@ -8728,10 +8548,10 @@
         <v>73</v>
       </c>
       <c r="N134" s="12"/>
-      <c r="O134" s="40"/>
-      <c r="P134" s="40"/>
-      <c r="Q134" s="40"/>
-      <c r="R134" s="41"/>
+      <c r="O134" s="41"/>
+      <c r="P134" s="41"/>
+      <c r="Q134" s="41"/>
+      <c r="R134" s="42"/>
     </row>
     <row r="135" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
@@ -9070,24 +8890,24 @@
       <c r="R148" s="19"/>
     </row>
     <row r="149" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="41" t="s">
+      <c r="A149" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B149" s="41" t="s">
+      <c r="B149" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C149" s="41" t="s">
+      <c r="C149" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D149" s="49" t="s">
+      <c r="D149" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="E149" s="49"/>
-      <c r="F149" s="49"/>
-      <c r="G149" s="43" t="s">
+      <c r="E149" s="51"/>
+      <c r="F149" s="51"/>
+      <c r="G149" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="H149" s="41" t="s">
+      <c r="H149" s="42" t="s">
         <v>29</v>
       </c>
       <c r="I149" s="4" t="s">
@@ -9108,26 +8928,26 @@
       <c r="N149" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O149" s="38" t="s">
+      <c r="O149" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="P149" s="38" t="s">
+      <c r="P149" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="Q149" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="R149" s="41"/>
+      <c r="Q149" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="R149" s="42"/>
     </row>
     <row r="150" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="41"/>
-      <c r="B150" s="41"/>
-      <c r="C150" s="41"/>
-      <c r="D150" s="41"/>
-      <c r="E150" s="41"/>
-      <c r="F150" s="41"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="41"/>
+      <c r="A150" s="42"/>
+      <c r="B150" s="42"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="42"/>
+      <c r="E150" s="42"/>
+      <c r="F150" s="42"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="42"/>
       <c r="I150" s="8" t="s">
         <v>55</v>
       </c>
@@ -9142,20 +8962,20 @@
       </c>
       <c r="M150" s="16"/>
       <c r="N150" s="9"/>
-      <c r="O150" s="39"/>
-      <c r="P150" s="39"/>
-      <c r="Q150" s="39"/>
-      <c r="R150" s="41"/>
+      <c r="O150" s="40"/>
+      <c r="P150" s="40"/>
+      <c r="Q150" s="40"/>
+      <c r="R150" s="42"/>
     </row>
     <row r="151" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="41"/>
-      <c r="B151" s="41"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="41"/>
-      <c r="E151" s="41"/>
-      <c r="F151" s="41"/>
-      <c r="G151" s="45"/>
-      <c r="H151" s="41"/>
+      <c r="A151" s="42"/>
+      <c r="B151" s="42"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="42"/>
+      <c r="E151" s="42"/>
+      <c r="F151" s="42"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="42"/>
       <c r="I151" s="11" t="s">
         <v>63</v>
       </c>
@@ -9172,22 +8992,22 @@
         <v>138</v>
       </c>
       <c r="N151" s="14"/>
-      <c r="O151" s="39"/>
-      <c r="P151" s="39"/>
-      <c r="Q151" s="39"/>
-      <c r="R151" s="41"/>
+      <c r="O151" s="40"/>
+      <c r="P151" s="40"/>
+      <c r="Q151" s="40"/>
+      <c r="R151" s="42"/>
     </row>
     <row r="152" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="41"/>
-      <c r="B152" s="41"/>
-      <c r="C152" s="41"/>
-      <c r="D152" s="41"/>
-      <c r="E152" s="41"/>
-      <c r="F152" s="41"/>
-      <c r="G152" s="46" t="s">
+      <c r="A152" s="42"/>
+      <c r="B152" s="42"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
+      <c r="G152" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="H152" s="41" t="s">
+      <c r="H152" s="42" t="s">
         <v>94</v>
       </c>
       <c r="I152" s="4" t="s">
@@ -9206,20 +9026,20 @@
         <v>139</v>
       </c>
       <c r="N152" s="5"/>
-      <c r="O152" s="39"/>
-      <c r="P152" s="39"/>
-      <c r="Q152" s="39"/>
-      <c r="R152" s="41"/>
+      <c r="O152" s="40"/>
+      <c r="P152" s="40"/>
+      <c r="Q152" s="40"/>
+      <c r="R152" s="42"/>
     </row>
     <row r="153" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="41"/>
-      <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="41"/>
-      <c r="E153" s="41"/>
-      <c r="F153" s="41"/>
-      <c r="G153" s="47"/>
-      <c r="H153" s="41"/>
+      <c r="A153" s="42"/>
+      <c r="B153" s="42"/>
+      <c r="C153" s="42"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="42"/>
       <c r="I153" s="8" t="s">
         <v>57</v>
       </c>
@@ -9234,20 +9054,20 @@
         <v>71</v>
       </c>
       <c r="N153" s="9"/>
-      <c r="O153" s="39"/>
-      <c r="P153" s="39"/>
-      <c r="Q153" s="39"/>
-      <c r="R153" s="41"/>
+      <c r="O153" s="40"/>
+      <c r="P153" s="40"/>
+      <c r="Q153" s="40"/>
+      <c r="R153" s="42"/>
     </row>
     <row r="154" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="41"/>
-      <c r="B154" s="41"/>
-      <c r="C154" s="41"/>
-      <c r="D154" s="41"/>
-      <c r="E154" s="41"/>
-      <c r="F154" s="41"/>
-      <c r="G154" s="48"/>
-      <c r="H154" s="41"/>
+      <c r="A154" s="42"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="42"/>
+      <c r="E154" s="42"/>
+      <c r="F154" s="42"/>
+      <c r="G154" s="49"/>
+      <c r="H154" s="42"/>
       <c r="I154" s="11" t="s">
         <v>70</v>
       </c>
@@ -9264,10 +9084,10 @@
         <v>66</v>
       </c>
       <c r="N154" s="12"/>
-      <c r="O154" s="40"/>
-      <c r="P154" s="40"/>
-      <c r="Q154" s="40"/>
-      <c r="R154" s="41"/>
+      <c r="O154" s="41"/>
+      <c r="P154" s="41"/>
+      <c r="Q154" s="41"/>
+      <c r="R154" s="42"/>
     </row>
     <row r="155" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
@@ -9318,24 +9138,24 @@
       <c r="R156" s="19"/>
     </row>
     <row r="157" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="41" t="s">
+      <c r="A157" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="B157" s="41" t="s">
+      <c r="B157" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="C157" s="41" t="s">
+      <c r="C157" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D157" s="49" t="s">
+      <c r="D157" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="E157" s="49"/>
-      <c r="F157" s="49"/>
-      <c r="G157" s="43" t="s">
+      <c r="E157" s="51"/>
+      <c r="F157" s="51"/>
+      <c r="G157" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="H157" s="41" t="s">
+      <c r="H157" s="42" t="s">
         <v>87</v>
       </c>
       <c r="I157" s="28" t="s">
@@ -9352,26 +9172,26 @@
       </c>
       <c r="M157" s="31"/>
       <c r="N157" s="34"/>
-      <c r="O157" s="38" t="s">
+      <c r="O157" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="P157" s="38" t="s">
+      <c r="P157" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="Q157" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="R157" s="41"/>
+      <c r="Q157" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="R157" s="42"/>
     </row>
     <row r="158" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="41"/>
-      <c r="B158" s="41"/>
-      <c r="C158" s="41"/>
-      <c r="D158" s="41"/>
-      <c r="E158" s="41"/>
-      <c r="F158" s="41"/>
-      <c r="G158" s="44"/>
-      <c r="H158" s="41"/>
+      <c r="A158" s="42"/>
+      <c r="B158" s="42"/>
+      <c r="C158" s="42"/>
+      <c r="D158" s="42"/>
+      <c r="E158" s="42"/>
+      <c r="F158" s="42"/>
+      <c r="G158" s="45"/>
+      <c r="H158" s="42"/>
       <c r="I158" s="29" t="s">
         <v>67</v>
       </c>
@@ -9388,20 +9208,20 @@
         <v>66</v>
       </c>
       <c r="N158" s="35"/>
-      <c r="O158" s="39"/>
-      <c r="P158" s="39"/>
-      <c r="Q158" s="39"/>
-      <c r="R158" s="41"/>
+      <c r="O158" s="40"/>
+      <c r="P158" s="40"/>
+      <c r="Q158" s="40"/>
+      <c r="R158" s="42"/>
     </row>
     <row r="159" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="41"/>
-      <c r="B159" s="41"/>
-      <c r="C159" s="41"/>
-      <c r="D159" s="41"/>
-      <c r="E159" s="41"/>
-      <c r="F159" s="41"/>
-      <c r="G159" s="45"/>
-      <c r="H159" s="41"/>
+      <c r="A159" s="42"/>
+      <c r="B159" s="42"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="42"/>
+      <c r="E159" s="42"/>
+      <c r="F159" s="42"/>
+      <c r="G159" s="46"/>
+      <c r="H159" s="42"/>
       <c r="I159" s="30" t="s">
         <v>57</v>
       </c>
@@ -9416,22 +9236,22 @@
         <v>60</v>
       </c>
       <c r="N159" s="14"/>
-      <c r="O159" s="39"/>
-      <c r="P159" s="39"/>
-      <c r="Q159" s="39"/>
-      <c r="R159" s="41"/>
+      <c r="O159" s="40"/>
+      <c r="P159" s="40"/>
+      <c r="Q159" s="40"/>
+      <c r="R159" s="42"/>
     </row>
     <row r="160" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="41"/>
-      <c r="B160" s="41"/>
-      <c r="C160" s="41"/>
-      <c r="D160" s="41"/>
-      <c r="E160" s="41"/>
-      <c r="F160" s="41"/>
-      <c r="G160" s="46" t="s">
+      <c r="A160" s="42"/>
+      <c r="B160" s="42"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="42"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="42"/>
+      <c r="G160" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="H160" s="41" t="s">
+      <c r="H160" s="42" t="s">
         <v>201</v>
       </c>
       <c r="I160" s="28" t="s">
@@ -9450,20 +9270,20 @@
         <v>138</v>
       </c>
       <c r="N160" s="34"/>
-      <c r="O160" s="39"/>
-      <c r="P160" s="39"/>
-      <c r="Q160" s="39"/>
-      <c r="R160" s="41"/>
+      <c r="O160" s="40"/>
+      <c r="P160" s="40"/>
+      <c r="Q160" s="40"/>
+      <c r="R160" s="42"/>
     </row>
     <row r="161" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="41"/>
-      <c r="B161" s="41"/>
-      <c r="C161" s="41"/>
-      <c r="D161" s="41"/>
-      <c r="E161" s="41"/>
-      <c r="F161" s="41"/>
-      <c r="G161" s="47"/>
-      <c r="H161" s="41"/>
+      <c r="A161" s="42"/>
+      <c r="B161" s="42"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="42"/>
+      <c r="E161" s="42"/>
+      <c r="F161" s="42"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="42"/>
       <c r="I161" s="29" t="s">
         <v>58</v>
       </c>
@@ -9480,20 +9300,20 @@
         <v>152</v>
       </c>
       <c r="N161" s="35"/>
-      <c r="O161" s="39"/>
-      <c r="P161" s="39"/>
-      <c r="Q161" s="39"/>
-      <c r="R161" s="41"/>
+      <c r="O161" s="40"/>
+      <c r="P161" s="40"/>
+      <c r="Q161" s="40"/>
+      <c r="R161" s="42"/>
     </row>
     <row r="162" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="41"/>
-      <c r="B162" s="41"/>
-      <c r="C162" s="41"/>
-      <c r="D162" s="41"/>
-      <c r="E162" s="41"/>
-      <c r="F162" s="41"/>
-      <c r="G162" s="48"/>
-      <c r="H162" s="41"/>
+      <c r="A162" s="42"/>
+      <c r="B162" s="42"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="42"/>
+      <c r="E162" s="42"/>
+      <c r="F162" s="42"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="42"/>
       <c r="I162" s="30" t="s">
         <v>69</v>
       </c>
@@ -9510,10 +9330,10 @@
         <v>169</v>
       </c>
       <c r="N162" s="36"/>
-      <c r="O162" s="40"/>
-      <c r="P162" s="40"/>
-      <c r="Q162" s="40"/>
-      <c r="R162" s="41"/>
+      <c r="O162" s="41"/>
+      <c r="P162" s="41"/>
+      <c r="Q162" s="41"/>
+      <c r="R162" s="42"/>
     </row>
     <row r="163" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
@@ -10020,26 +9840,26 @@
       <c r="R183" s="19"/>
     </row>
     <row r="184" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="B184" s="53"/>
-      <c r="C184" s="53"/>
-      <c r="D184" s="53"/>
-      <c r="E184" s="53"/>
-      <c r="F184" s="53"/>
-      <c r="G184" s="53"/>
-      <c r="H184" s="53"/>
-      <c r="I184" s="53"/>
-      <c r="J184" s="53"/>
-      <c r="K184" s="53"/>
-      <c r="L184" s="53"/>
-      <c r="M184" s="53"/>
-      <c r="N184" s="53"/>
-      <c r="O184" s="53"/>
-      <c r="P184" s="53"/>
-      <c r="Q184" s="53"/>
-      <c r="R184" s="54"/>
+      <c r="A184" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="B184" s="56"/>
+      <c r="C184" s="56"/>
+      <c r="D184" s="56"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="56"/>
+      <c r="G184" s="56"/>
+      <c r="H184" s="56"/>
+      <c r="I184" s="56"/>
+      <c r="J184" s="56"/>
+      <c r="K184" s="56"/>
+      <c r="L184" s="56"/>
+      <c r="M184" s="56"/>
+      <c r="N184" s="56"/>
+      <c r="O184" s="56"/>
+      <c r="P184" s="56"/>
+      <c r="Q184" s="56"/>
+      <c r="R184" s="57"/>
     </row>
     <row r="185" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
@@ -10426,26 +10246,26 @@
       <c r="R200" s="19"/>
     </row>
     <row r="201" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="55" t="s">
-        <v>354</v>
-      </c>
-      <c r="B201" s="56"/>
-      <c r="C201" s="56"/>
-      <c r="D201" s="56"/>
-      <c r="E201" s="56"/>
-      <c r="F201" s="56"/>
-      <c r="G201" s="56"/>
-      <c r="H201" s="56"/>
-      <c r="I201" s="56"/>
-      <c r="J201" s="56"/>
-      <c r="K201" s="56"/>
-      <c r="L201" s="56"/>
-      <c r="M201" s="56"/>
-      <c r="N201" s="56"/>
-      <c r="O201" s="56"/>
-      <c r="P201" s="56"/>
-      <c r="Q201" s="56"/>
-      <c r="R201" s="57"/>
+      <c r="A201" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="B201" s="53"/>
+      <c r="C201" s="53"/>
+      <c r="D201" s="53"/>
+      <c r="E201" s="53"/>
+      <c r="F201" s="53"/>
+      <c r="G201" s="53"/>
+      <c r="H201" s="53"/>
+      <c r="I201" s="53"/>
+      <c r="J201" s="53"/>
+      <c r="K201" s="53"/>
+      <c r="L201" s="53"/>
+      <c r="M201" s="53"/>
+      <c r="N201" s="53"/>
+      <c r="O201" s="53"/>
+      <c r="P201" s="53"/>
+      <c r="Q201" s="53"/>
+      <c r="R201" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="348">
@@ -10461,6 +10281,18 @@
     <mergeCell ref="Q114:Q119"/>
     <mergeCell ref="Q122:Q127"/>
     <mergeCell ref="Q129:Q134"/>
+    <mergeCell ref="A157:A162"/>
+    <mergeCell ref="B157:B162"/>
+    <mergeCell ref="E157:E162"/>
+    <mergeCell ref="G157:G159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="O157:O162"/>
+    <mergeCell ref="R157:R159"/>
+    <mergeCell ref="G160:G162"/>
+    <mergeCell ref="H160:H162"/>
+    <mergeCell ref="R160:R162"/>
+    <mergeCell ref="F157:F162"/>
+    <mergeCell ref="C157:C162"/>
     <mergeCell ref="Q14:Q19"/>
     <mergeCell ref="Q8:Q13"/>
     <mergeCell ref="Q20:Q25"/>
@@ -10488,18 +10320,6 @@
     <mergeCell ref="F100:F105"/>
     <mergeCell ref="F107:F112"/>
     <mergeCell ref="F114:F119"/>
-    <mergeCell ref="A157:A162"/>
-    <mergeCell ref="B157:B162"/>
-    <mergeCell ref="E157:E162"/>
-    <mergeCell ref="G157:G159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="O157:O162"/>
-    <mergeCell ref="R157:R159"/>
-    <mergeCell ref="G160:G162"/>
-    <mergeCell ref="H160:H162"/>
-    <mergeCell ref="R160:R162"/>
-    <mergeCell ref="F157:F162"/>
-    <mergeCell ref="C157:C162"/>
     <mergeCell ref="D157:D162"/>
     <mergeCell ref="P157:P162"/>
     <mergeCell ref="Q157:Q162"/>
@@ -10509,6 +10329,17 @@
     <mergeCell ref="G114:G116"/>
     <mergeCell ref="H114:H116"/>
     <mergeCell ref="O114:O119"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="E149:E154"/>
+    <mergeCell ref="G149:G151"/>
+    <mergeCell ref="H149:H151"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="G129:G131"/>
+    <mergeCell ref="H129:H131"/>
+    <mergeCell ref="O129:O134"/>
     <mergeCell ref="R114:R116"/>
     <mergeCell ref="G117:G119"/>
     <mergeCell ref="H117:H119"/>
@@ -10657,11 +10488,6 @@
     <mergeCell ref="G100:G102"/>
     <mergeCell ref="A56:A61"/>
     <mergeCell ref="B56:B61"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B154"/>
-    <mergeCell ref="E149:E154"/>
-    <mergeCell ref="G149:G151"/>
-    <mergeCell ref="H149:H151"/>
     <mergeCell ref="R149:R151"/>
     <mergeCell ref="G152:G154"/>
     <mergeCell ref="H152:H154"/>
@@ -10686,12 +10512,6 @@
     <mergeCell ref="D56:D61"/>
     <mergeCell ref="D62:D67"/>
     <mergeCell ref="Q62:Q67"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="H129:H131"/>
-    <mergeCell ref="O129:O134"/>
     <mergeCell ref="R129:R131"/>
     <mergeCell ref="G132:G134"/>
     <mergeCell ref="H132:H134"/>
@@ -10710,6 +10530,7 @@
     <mergeCell ref="R125:R127"/>
     <mergeCell ref="F122:F127"/>
     <mergeCell ref="P122:P127"/>
+    <mergeCell ref="D129:D134"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="B50:B55"/>
     <mergeCell ref="E50:E55"/>
@@ -10763,7 +10584,6 @@
     <mergeCell ref="C114:C119"/>
     <mergeCell ref="C122:C127"/>
     <mergeCell ref="C129:C134"/>
-    <mergeCell ref="D129:D134"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="D14:D19"/>
@@ -10799,1482 +10619,1482 @@
     <mergeCell ref="F38:F43"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I119 I202:I1048576 I121:I154">
-    <cfRule type="cellIs" dxfId="479" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="546" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="547" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="548" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="549" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="550" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="551" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="552" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K119 K202:K1048576 K121:K154">
-    <cfRule type="cellIs" dxfId="472" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="517" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="518" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="521" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="522" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="523" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I155">
-    <cfRule type="cellIs" dxfId="467" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="510" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="511" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="512" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="513" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="514" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="515" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="516" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K155">
-    <cfRule type="cellIs" dxfId="460" priority="505" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="505" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="506" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="507" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="508" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="509" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156">
-    <cfRule type="cellIs" dxfId="455" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="498" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="499" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="500" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="501" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="502" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="503" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="504" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156">
-    <cfRule type="cellIs" dxfId="448" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="493" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="494" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="495" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="496" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="497" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I157:I162">
-    <cfRule type="cellIs" dxfId="443" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="486" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="487" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="488" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="489" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="490" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="491" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="492" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K157:K162">
-    <cfRule type="cellIs" dxfId="436" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="481" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="482" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="483" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="484" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="485" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I200">
-    <cfRule type="cellIs" dxfId="431" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="474" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="475" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="476" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="477" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="478" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="479" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="480" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="cellIs" dxfId="424" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="469" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="470" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="471" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="472" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="473" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I199">
-    <cfRule type="cellIs" dxfId="419" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="462" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="463" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="464" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="465" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="466" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="467" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="468" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="cellIs" dxfId="412" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="457" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="458" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="459" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="460" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="461" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197">
-    <cfRule type="cellIs" dxfId="407" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="426" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="427" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="428" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="429" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="430" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="431" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="432" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K197">
-    <cfRule type="cellIs" dxfId="400" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="421" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="422" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="423" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="424" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="425" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I198">
-    <cfRule type="cellIs" dxfId="395" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="438" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="439" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="440" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="441" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="442" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="443" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="444" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198">
-    <cfRule type="cellIs" dxfId="388" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="433" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="434" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="435" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="436" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="437" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I163">
-    <cfRule type="cellIs" dxfId="383" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="390" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="391" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="392" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="393" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="394" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="395" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="396" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K163">
-    <cfRule type="cellIs" dxfId="376" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="385" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="386" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="387" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="388" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="389" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I166">
-    <cfRule type="cellIs" dxfId="371" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="330" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="331" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="332" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="333" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="334" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="335" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="336" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K166">
-    <cfRule type="cellIs" dxfId="364" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="325" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="326" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="327" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="328" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="329" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I165">
-    <cfRule type="cellIs" dxfId="359" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="366" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="367" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="368" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="369" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="370" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="371" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="372" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K165">
-    <cfRule type="cellIs" dxfId="352" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="361" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="362" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="363" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="364" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="365" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I164">
-    <cfRule type="cellIs" dxfId="347" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="354" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="355" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="356" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="357" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="358" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="359" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="360" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164">
-    <cfRule type="cellIs" dxfId="340" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="349" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="350" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="351" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="352" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="353" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I174">
-    <cfRule type="cellIs" dxfId="335" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="234" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="235" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="236" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="237" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="238" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="239" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="240" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K174">
-    <cfRule type="cellIs" dxfId="328" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="229" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="230" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="231" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="232" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="233" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I167">
-    <cfRule type="cellIs" dxfId="323" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="342" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="343" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="344" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="345" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="346" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="347" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="348" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K167">
-    <cfRule type="cellIs" dxfId="316" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="337" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="338" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="339" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="340" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="341" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I169">
-    <cfRule type="cellIs" dxfId="311" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="318" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="319" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="320" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="321" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="322" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="323" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="324" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K169">
-    <cfRule type="cellIs" dxfId="304" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="313" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="314" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="315" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="316" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="317" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I168">
-    <cfRule type="cellIs" dxfId="299" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="306" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="307" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="308" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="309" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="310" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="311" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="312" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K168">
-    <cfRule type="cellIs" dxfId="292" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="301" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="302" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="303" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="304" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="305" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I170">
-    <cfRule type="cellIs" dxfId="287" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="282" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="283" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="284" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="285" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="286" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="287" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="288" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K170">
-    <cfRule type="cellIs" dxfId="280" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="277" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="278" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="279" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="280" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="281" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I171">
-    <cfRule type="cellIs" dxfId="275" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="294" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="295" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="296" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="297" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="298" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="299" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="300" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K171">
-    <cfRule type="cellIs" dxfId="268" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="289" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="290" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="291" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="292" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="293" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194">
-    <cfRule type="cellIs" dxfId="263" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="42" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="43" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="44" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="45" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="46" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="47" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="48" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194">
-    <cfRule type="cellIs" dxfId="256" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="37" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="38" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="39" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="40" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="41" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I173">
-    <cfRule type="cellIs" dxfId="251" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="270" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="271" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="272" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="273" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="274" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="275" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="276" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K173">
-    <cfRule type="cellIs" dxfId="244" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="265" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="266" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="267" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="268" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="269" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I172">
-    <cfRule type="cellIs" dxfId="239" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="258" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="259" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="260" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="261" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="262" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="263" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="264" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K172">
-    <cfRule type="cellIs" dxfId="232" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="253" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="254" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="255" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="256" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="257" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I175:I177">
-    <cfRule type="cellIs" dxfId="227" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="246" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="247" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="248" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="249" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="250" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="251" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="252" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K175:K177">
-    <cfRule type="cellIs" dxfId="220" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="241" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="242" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="243" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="244" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="245" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I180">
-    <cfRule type="cellIs" dxfId="215" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="222" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="223" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="224" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="225" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="226" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="227" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="228" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K180">
-    <cfRule type="cellIs" dxfId="208" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="217" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="218" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="219" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="220" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="221" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I178:I179">
-    <cfRule type="cellIs" dxfId="203" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="210" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="211" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="212" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="213" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="214" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="215" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="216" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K178:K179">
-    <cfRule type="cellIs" dxfId="196" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="205" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="206" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="207" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="208" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="209" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I181">
-    <cfRule type="cellIs" dxfId="191" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="186" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="187" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="188" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="189" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="190" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="191" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="192" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K181">
-    <cfRule type="cellIs" dxfId="184" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="181" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="182" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="183" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="184" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="185" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I182">
-    <cfRule type="cellIs" dxfId="179" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="198" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="199" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="200" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="201" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="202" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="203" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="204" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K182">
-    <cfRule type="cellIs" dxfId="172" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="193" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="194" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="195" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="196" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="197" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I186">
-    <cfRule type="cellIs" dxfId="167" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="138" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="139" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="140" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="141" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="142" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="143" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="144" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K186">
-    <cfRule type="cellIs" dxfId="160" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="133" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="134" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="135" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="136" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="137" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I185">
-    <cfRule type="cellIs" dxfId="155" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="174" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="175" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="176" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="177" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="178" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="179" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="180" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K185">
-    <cfRule type="cellIs" dxfId="148" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="169" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="170" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="171" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="172" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="173" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I183">
-    <cfRule type="cellIs" dxfId="143" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="162" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="163" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="164" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="165" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="166" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="167" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="168" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K183">
-    <cfRule type="cellIs" dxfId="136" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="157" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="158" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="159" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="160" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="161" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I187">
-    <cfRule type="cellIs" dxfId="131" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="150" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="151" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="152" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="153" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="154" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="155" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="156" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K187">
-    <cfRule type="cellIs" dxfId="124" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="145" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="146" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="147" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="148" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="149" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I189">
-    <cfRule type="cellIs" dxfId="119" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="126" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="127" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="128" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="129" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="130" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="131" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="132" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189">
-    <cfRule type="cellIs" dxfId="112" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="121" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="122" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="123" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="124" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="125" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I188">
-    <cfRule type="cellIs" dxfId="107" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="114" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="115" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="116" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="117" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="118" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="119" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="120" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K188">
-    <cfRule type="cellIs" dxfId="100" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="109" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="110" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="111" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="112" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="113" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190">
-    <cfRule type="cellIs" dxfId="95" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="90" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="91" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="92" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="93" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="94" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="95" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="96" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="85" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="86" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="87" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="88" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="89" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I191">
-    <cfRule type="cellIs" dxfId="83" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="102" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="103" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="104" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="105" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="106" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="107" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="108" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="cellIs" dxfId="76" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="97" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="98" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="99" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="100" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="101" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I193">
-    <cfRule type="cellIs" dxfId="71" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="78" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="79" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="80" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="81" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="82" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="83" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="84" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="cellIs" dxfId="64" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="73" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="74" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="75" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="76" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="77" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I192">
-    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="66" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="67" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="68" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="69" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="70" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="71" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="72" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192">
-    <cfRule type="cellIs" dxfId="52" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="61" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="62" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="63" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="64" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="65" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195:I196">
-    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="54" operator="equal">
       <formula>"Mining Expedition"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="55" operator="equal">
       <formula>"Point Extraction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="56" operator="equal">
       <formula>"On-Site Refining"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="57" operator="equal">
       <formula>"Salvage Operation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="58" operator="equal">
       <formula>"Egg Hunt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="59" operator="equal">
       <formula>"Elimination"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="60" operator="equal">
       <formula>"Escort Duty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195:K196">
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="49" operator="equal">
       <formula>"Recover Black Box"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="50" operator="equal">
       <formula>"Extract Morkite"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="51" operator="equal">
       <formula>"Repair Mini M.U.L.E.S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="equal">
       <formula>"Collect Alien Eggs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
       <formula>"Kill Dreadnought"</formula>
     </cfRule>
   </conditionalFormatting>
